--- a/input_csv/09_CPU_Kuehler/artikel.xlsx
+++ b/input_csv/09_CPU_Kuehler/artikel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nico.Brosowski\Desktop\____Apps___\JTL_Apps\Open_AI_Searcher\input_csv\09_CPU_Kuehler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48532C1E-25FF-43E9-AEF2-EEE2CC333A7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD79CCFE-6BF1-4788-AA43-68C3C2FF78EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{67A32067-4E2F-41F5-B9B8-3BCF694FA07B}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Artikelname</t>
   </si>
@@ -31,20 +31,41 @@
     <t>GTIN</t>
   </si>
   <si>
-    <t>Xilence A250PWM AMD-Prozessor - Luftkühler - XC035</t>
-  </si>
-  <si>
-    <t>Xilence I404T Intel Prozessor - Luftkühler XC041</t>
-  </si>
-  <si>
-    <t>NZXT T120 - Prozessor - Luftkühler Weiß</t>
+    <t>Xilence A250PWM</t>
+  </si>
+  <si>
+    <t>Xilence A404T</t>
+  </si>
+  <si>
+    <t>Xilence I250PWM</t>
+  </si>
+  <si>
+    <t>Xilence I404T</t>
+  </si>
+  <si>
+    <t>Systemtreff Aurion ARGB Black - Prozessor - Luftkühler</t>
+  </si>
+  <si>
+    <t>Systemtreff Aurion Black - Prozessor - Luftkühler</t>
+  </si>
+  <si>
+    <t>Systemtreff Aurion White - Prozessor - Luftkühler</t>
+  </si>
+  <si>
+    <t>Be Quiet! Pure Rock 3 Black - Prozessor - Luftkühler</t>
+  </si>
+  <si>
+    <t>Be Quiet! Pure Rock 3 LX</t>
+  </si>
+  <si>
+    <t>FSP NP5-B - Prozessor - Luftkühler Schwarz</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,6 +196,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -521,9 +549,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -899,17 +928,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32BD2B9D-2F60-4B69-96A5-98EB0E237ACA}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.140625" customWidth="1"/>
+    <col min="1" max="1" width="49.7109375" customWidth="1"/>
     <col min="2" max="2" width="50" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -924,36 +953,113 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>1079</v>
       </c>
       <c r="C2" s="1">
-        <v>4044950000000</v>
+        <v>4044953500770</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
-        <v>102745</v>
+      <c r="B3" s="2">
+        <v>102149</v>
       </c>
       <c r="C3" s="1">
-        <v>4044950000000</v>
+        <v>4044953501173</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
-        <v>106140</v>
+      <c r="B4" s="2">
+        <v>101761</v>
       </c>
       <c r="C4">
-        <v>5056547200187</v>
+        <v>4044953500756</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2">
+        <v>102745</v>
+      </c>
+      <c r="C5">
+        <v>4044953501180</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2">
+        <v>107194</v>
+      </c>
+      <c r="C6">
+        <v>4255811356334</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2">
+        <v>107193</v>
+      </c>
+      <c r="C7">
+        <v>4255811356310</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2">
+        <v>107195</v>
+      </c>
+      <c r="C8">
+        <v>4255811356327</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2">
+        <v>107061</v>
+      </c>
+      <c r="C9">
+        <v>4260052192481</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2">
+        <v>107050</v>
+      </c>
+      <c r="C10">
+        <v>4260052192498</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="2">
+        <v>106983</v>
+      </c>
+      <c r="C11">
+        <v>4711498480811</v>
       </c>
     </row>
   </sheetData>

--- a/input_csv/09_CPU_Kuehler/artikel.xlsx
+++ b/input_csv/09_CPU_Kuehler/artikel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nico.Brosowski\Desktop\____Apps___\JTL_Apps\Open_AI_Searcher\input_csv\09_CPU_Kuehler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD79CCFE-6BF1-4788-AA43-68C3C2FF78EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{186349C1-585E-483F-9CD7-CA15D01AB28B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{67A32067-4E2F-41F5-B9B8-3BCF694FA07B}"/>
   </bookViews>
@@ -931,7 +931,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
